--- a/sml-office/src/main/java/org/hw/sml/office/excel/parser/model.xlsx
+++ b/sml-office/src/main/java/org/hw/sml/office/excel/parser/model.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>title</t>
   </si>
@@ -90,17 +90,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -123,151 +119,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,7 +133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,194 +161,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -504,14 +175,14 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </right>
       <top/>
       <bottom/>
@@ -520,28 +191,28 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </left>
       <right style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,7 +220,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="8" tint="0.399975585192419"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
         <color rgb="FFB9E4FF"/>
@@ -593,260 +264,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,58 +332,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1253,21 +631,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:2">
+    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1291,10 +668,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="4"/>
     </row>
-    <row r="5" ht="18.75" spans="1:2">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +703,7 @@
         <v>1.225433</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +711,7 @@
         <v>1.225433</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1350,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1358,7 +735,7 @@
         <v>1.225433</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1366,10 +743,10 @@
         <v>1.225433</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
@@ -1385,7 +762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>21</v>
       </c>
@@ -1394,39 +771,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
